--- a/Competition/data/Infantry.xlsx
+++ b/Competition/data/Infantry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1794F204-995B-407D-90BF-438E95D91AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7C0FA2-FCD3-4C93-BE30-240E11261F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
-  <si>
-    <t>兵马类目标</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,7 +442,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -459,30 +456,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>430</v>
@@ -493,19 +490,19 @@
       <c r="D2" s="1">
         <v>610</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>410</v>
@@ -516,19 +513,19 @@
       <c r="D3" s="1">
         <v>450</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>370</v>
@@ -539,19 +536,19 @@
       <c r="D4" s="1">
         <v>760</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>380</v>
@@ -562,19 +559,19 @@
       <c r="D5" s="1">
         <v>470</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>270</v>
@@ -585,19 +582,19 @@
       <c r="D6" s="1">
         <v>380</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>160</v>
@@ -608,19 +605,19 @@
       <c r="D7" s="1">
         <v>570</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>120</v>
@@ -631,19 +628,19 @@
       <c r="D8" s="1">
         <v>320</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>160</v>
@@ -654,19 +651,19 @@
       <c r="D9" s="1">
         <v>330</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>140</v>
@@ -677,19 +674,19 @@
       <c r="D10" s="1">
         <v>530</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>230</v>
@@ -700,14 +697,14 @@
       <c r="D11" s="1">
         <v>310</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">

--- a/Competition/data/Infantry.xlsx
+++ b/Competition/data/Infantry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7C0FA2-FCD3-4C93-BE30-240E11261F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC36753-83A4-468D-8DCF-05653FE62791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>idx_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,7 +446,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -476,6 +480,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -499,6 +506,9 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -522,6 +532,9 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -545,6 +558,9 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -568,6 +584,9 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -591,6 +610,9 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -614,6 +636,9 @@
       <c r="G7" t="s">
         <v>22</v>
       </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -637,6 +662,9 @@
       <c r="G8" t="s">
         <v>23</v>
       </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -660,6 +688,9 @@
       <c r="G9" t="s">
         <v>24</v>
       </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -683,6 +714,9 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -705,6 +739,9 @@
       </c>
       <c r="G11" t="s">
         <v>26</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">

--- a/Competition/data/Infantry.xlsx
+++ b/Competition/data/Infantry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC36753-83A4-468D-8DCF-05653FE62791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +164,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Competition/data/Infantry.xlsx
+++ b/Competition/data/Infantry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E62F9C6-7A65-4ACC-B8D7-37B1852CBE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="3840" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +165,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
